--- a/inst/2023-mht/dataDictionary20230526.xlsx
+++ b/inst/2023-mht/dataDictionary20230526.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://folkehelse-my.sharepoint.com/personal/richardaubrey_white_fhi_no/Documents/Skrivebord/data_structural/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/containers/volumes/workbench/r-packages/swereg/inst/2023-mht/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA96958-5E0F-EF47-BE32-EAC405A27519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056F6E0C-8CCA-5648-A2FA-30C411C24739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="6100" windowWidth="40620" windowHeight="21840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MHT_groups" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MHT_groups!$A$1:$H$159</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="579">
   <si>
     <t>Grupp</t>
   </si>
@@ -1777,7 +1777,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1789,29 +1789,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFD9D9D9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFD9D9D9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1845,8 +1822,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1857,6 +1849,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1911,29 +1909,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2322,19 +2320,19 @@
       <selection activeCell="B2" sqref="B2:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2386,7 +2384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +2407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2432,7 +2430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2455,7 +2453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2547,7 +2545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2570,7 +2568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +2591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2616,7 +2614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2639,7 +2637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2662,7 +2660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2685,7 +2683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2731,7 +2729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2754,7 +2752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2777,7 +2775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2800,7 +2798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2823,7 +2821,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2846,7 +2844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2869,7 +2867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2892,7 +2890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2915,7 +2913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2938,7 +2936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2955,7 +2953,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2995,7 +2993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -3018,7 +3016,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3041,7 +3039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -3064,7 +3062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -3087,7 +3085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3110,7 +3108,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3133,7 +3131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -3156,7 +3154,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -3179,7 +3177,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -3202,7 +3200,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -3225,7 +3223,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -3248,7 +3246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -3271,7 +3269,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -3294,7 +3292,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -3317,7 +3315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -3340,7 +3338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -3363,7 +3361,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -3386,7 +3384,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -3409,7 +3407,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -3455,7 +3453,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -3478,7 +3476,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -3501,7 +3499,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -3524,7 +3522,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3547,7 +3545,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -3570,7 +3568,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>120</v>
       </c>
@@ -3593,7 +3591,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -3616,7 +3614,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -3639,7 +3637,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -3662,7 +3660,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -3685,7 +3683,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -3708,7 +3706,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -3731,7 +3729,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -3754,7 +3752,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -3777,7 +3775,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>120</v>
       </c>
@@ -3800,7 +3798,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>120</v>
       </c>
@@ -3823,7 +3821,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -3846,7 +3844,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -3869,7 +3867,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -3892,7 +3890,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -3915,7 +3913,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -3938,7 +3936,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -3961,7 +3959,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -3984,7 +3982,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -4007,7 +4005,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -4030,7 +4028,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -4053,7 +4051,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>120</v>
       </c>
@@ -4076,7 +4074,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -4099,7 +4097,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>167</v>
       </c>
@@ -4122,7 +4120,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -4145,7 +4143,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -4168,7 +4166,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>167</v>
       </c>
@@ -4191,7 +4189,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -4217,7 +4215,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>182</v>
       </c>
@@ -4240,7 +4238,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -4266,7 +4264,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -4292,7 +4290,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>182</v>
       </c>
@@ -4318,7 +4316,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -4344,7 +4342,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>197</v>
       </c>
@@ -4367,7 +4365,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>197</v>
       </c>
@@ -4390,7 +4388,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>197</v>
       </c>
@@ -4413,7 +4411,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>197</v>
       </c>
@@ -4436,7 +4434,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>197</v>
       </c>
@@ -4459,7 +4457,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>197</v>
       </c>
@@ -4482,7 +4480,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>197</v>
       </c>
@@ -4505,7 +4503,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>212</v>
       </c>
@@ -4529,7 +4527,7 @@
       </c>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>216</v>
       </c>
@@ -4549,7 +4547,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>216</v>
       </c>
@@ -4569,7 +4567,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>216</v>
       </c>
@@ -4589,7 +4587,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>216</v>
       </c>
@@ -4609,7 +4607,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -4629,7 +4627,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>216</v>
       </c>
@@ -4649,7 +4647,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -4669,7 +4667,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>216</v>
       </c>
@@ -4689,7 +4687,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>216</v>
       </c>
@@ -4709,7 +4707,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>216</v>
       </c>
@@ -4729,7 +4727,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>216</v>
       </c>
@@ -4749,7 +4747,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>232</v>
       </c>
@@ -4773,7 +4771,7 @@
       </c>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -4797,7 +4795,7 @@
       </c>
       <c r="H108" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>239</v>
       </c>
@@ -4808,7 +4806,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>239</v>
       </c>
@@ -4819,7 +4817,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>239</v>
       </c>
@@ -4830,7 +4828,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>239</v>
       </c>
@@ -4841,7 +4839,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>239</v>
       </c>
@@ -4852,7 +4850,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>239</v>
       </c>
@@ -4863,7 +4861,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>239</v>
       </c>
@@ -4874,7 +4872,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>239</v>
       </c>
@@ -4885,7 +4883,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>239</v>
       </c>
@@ -4896,7 +4894,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>239</v>
       </c>
@@ -4907,7 +4905,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>239</v>
       </c>
@@ -4918,7 +4916,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>239</v>
       </c>
@@ -4929,7 +4927,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>239</v>
       </c>
@@ -4940,7 +4938,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>239</v>
       </c>
@@ -4951,7 +4949,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>239</v>
       </c>
@@ -4962,7 +4960,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>239</v>
       </c>
@@ -4973,7 +4971,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>239</v>
       </c>
@@ -4984,7 +4982,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>239</v>
       </c>
@@ -4995,7 +4993,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>239</v>
       </c>
@@ -5006,7 +5004,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>239</v>
       </c>
@@ -5017,7 +5015,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>239</v>
       </c>
@@ -5028,7 +5026,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>239</v>
       </c>
@@ -5039,7 +5037,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>239</v>
       </c>
@@ -5050,7 +5048,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>239</v>
       </c>
@@ -5061,7 +5059,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>239</v>
       </c>
@@ -5072,7 +5070,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>239</v>
       </c>
@@ -5083,7 +5081,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>239</v>
       </c>
@@ -5094,7 +5092,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>239</v>
       </c>
@@ -5105,7 +5103,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>239</v>
       </c>
@@ -5116,7 +5114,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>239</v>
       </c>
@@ -5127,7 +5125,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>239</v>
       </c>
@@ -5138,7 +5136,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>239</v>
       </c>
@@ -5149,7 +5147,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>239</v>
       </c>
@@ -5160,7 +5158,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>239</v>
       </c>
@@ -5171,7 +5169,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>239</v>
       </c>
@@ -5182,7 +5180,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>239</v>
       </c>
@@ -5193,7 +5191,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>239</v>
       </c>
@@ -5204,7 +5202,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>239</v>
       </c>
@@ -5215,7 +5213,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>239</v>
       </c>
@@ -5226,7 +5224,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>239</v>
       </c>
@@ -5237,7 +5235,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>239</v>
       </c>
@@ -5248,7 +5246,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>239</v>
       </c>
@@ -5259,7 +5257,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>239</v>
       </c>
@@ -5270,7 +5268,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>239</v>
       </c>
@@ -5281,7 +5279,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>239</v>
       </c>
@@ -5292,7 +5290,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>239</v>
       </c>
@@ -5303,7 +5301,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>239</v>
       </c>
@@ -5314,7 +5312,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>239</v>
       </c>
@@ -5325,7 +5323,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>239</v>
       </c>
@@ -5336,7 +5334,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>239</v>
       </c>
@@ -5360,4028 +5358,4004 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI191"/>
+  <dimension ref="A1:AI189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.5" style="2"/>
-    <col min="4" max="4" width="24.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="2" customWidth="1"/>
-    <col min="6" max="14" width="15" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.375" style="3" customWidth="1"/>
-    <col min="16" max="17" width="16" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.875" style="3" customWidth="1"/>
-    <col min="19" max="21" width="16" style="3" customWidth="1"/>
-    <col min="22" max="23" width="16" style="4" customWidth="1"/>
-    <col min="24" max="24" width="16" style="3" customWidth="1"/>
-    <col min="25" max="25" width="16" style="4" customWidth="1"/>
-    <col min="26" max="29" width="15.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" style="15" customWidth="1"/>
+    <col min="2" max="3" width="10.5" style="15"/>
+    <col min="4" max="4" width="24.1640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="19" customWidth="1"/>
+    <col min="6" max="14" width="15" style="15" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="15" customWidth="1"/>
+    <col min="16" max="17" width="16" style="15" customWidth="1"/>
+    <col min="18" max="18" width="20.83203125" style="15" customWidth="1"/>
+    <col min="19" max="21" width="16" style="15" customWidth="1"/>
+    <col min="22" max="23" width="16" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16" style="15" customWidth="1"/>
+    <col min="25" max="25" width="16" style="12" customWidth="1"/>
+    <col min="26" max="29" width="15.6640625" style="12" customWidth="1"/>
+    <col min="30" max="16384" width="10.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:35" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="9"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="18"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="11">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="11">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="11">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="15">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="15">
         <v>2</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="15">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="15">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="15">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="15">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="15">
         <v>2</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="15">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="15">
         <v>2</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="15">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="15">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="15">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="15">
         <v>2</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="15">
         <v>2</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="15">
         <v>2</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="15">
         <v>2</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="15">
         <v>2</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="15">
         <v>2</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="Y38" s="15"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="15">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="Y39" s="3"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="Y39" s="15"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="15">
         <v>3</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="O41" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="P41" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="Q41" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R41" s="7" t="s">
+      <c r="R41" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S41" s="7" t="s">
+      <c r="S41" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="T41" s="7" t="s">
+      <c r="T41" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U41" s="7" t="s">
+      <c r="U41" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V41" s="10" t="s">
+      <c r="V41" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="W41" s="10" t="s">
+      <c r="W41" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="X41" s="10" t="s">
+      <c r="X41" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Y41" s="11" t="s">
+      <c r="Y41" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z41" s="11" t="s">
+      <c r="Z41" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AA41" s="9" t="s">
+      <c r="AA41" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AB41" s="11"/>
-      <c r="AC41"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="AB41" s="14"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="15">
         <v>3</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R42" s="7" t="s">
+      <c r="R42" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S42" s="7" t="s">
+      <c r="S42" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="T42" s="7" t="s">
+      <c r="T42" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U42" s="7" t="s">
+      <c r="U42" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="10" t="s">
+      <c r="V42" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="W42" s="10" t="s">
+      <c r="W42" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="X42" s="10" t="s">
+      <c r="X42" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Y42" s="11" t="s">
+      <c r="Y42" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z42" s="11" t="s">
+      <c r="Z42" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AA42" s="9" t="s">
+      <c r="AA42" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AB42" s="11"/>
-      <c r="AC42"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="AB42" s="14"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="15">
         <v>3</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="Q43" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R43" s="7" t="s">
+      <c r="R43" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S43" s="7" t="s">
+      <c r="S43" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="T43" s="7" t="s">
+      <c r="T43" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U43" s="7" t="s">
+      <c r="U43" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V43" s="10" t="s">
+      <c r="V43" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="W43" s="10" t="s">
+      <c r="W43" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="X43" s="10" t="s">
+      <c r="X43" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Y43" s="11" t="s">
+      <c r="Y43" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z43" s="11" t="s">
+      <c r="Z43" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AA43" s="9" t="s">
+      <c r="AA43" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AB43" s="11"/>
-      <c r="AC43"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="AB43" s="14"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="15">
         <v>3</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N44" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="Q44" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R44" s="7" t="s">
+      <c r="R44" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S44" s="7" t="s">
+      <c r="S44" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="T44" s="7" t="s">
+      <c r="T44" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U44" s="7" t="s">
+      <c r="U44" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V44" s="10" t="s">
+      <c r="V44" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="W44" s="10" t="s">
+      <c r="W44" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="X44" s="11" t="s">
+      <c r="X44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="11" t="s">
+      <c r="Y44" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z44" s="11" t="s">
+      <c r="Z44" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AA44" s="9" t="s">
+      <c r="AA44" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AB44" s="11"/>
-      <c r="AC44"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="AB44" s="14"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="15">
         <v>3</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R45" s="7" t="s">
+      <c r="R45" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S45" s="7" t="s">
+      <c r="S45" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="T45" s="7" t="s">
+      <c r="T45" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U45" s="7" t="s">
+      <c r="U45" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V45" s="10" t="s">
+      <c r="V45" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="W45" s="10" t="s">
+      <c r="W45" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="X45" s="11" t="s">
+      <c r="X45" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="Y45" s="11" t="s">
+      <c r="Y45" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z45" s="11" t="s">
+      <c r="Z45" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AA45" s="9" t="s">
+      <c r="AA45" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AB45" s="11"/>
-      <c r="AC45"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="AB45" s="14"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="15">
         <v>3</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="15">
         <v>3</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="15">
         <v>3</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="15">
         <v>3</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="15">
         <v>3</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="15">
         <v>3</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="15">
         <v>3</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="15">
         <v>3</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="15">
         <v>3</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="15">
         <v>3</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="15">
         <v>3</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="11"/>
-      <c r="AE56" s="9"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="14"/>
+      <c r="AE56" s="14"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="15">
         <v>3</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="11"/>
-      <c r="AE57" s="9"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="14"/>
+      <c r="AE57" s="14"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="15">
         <v>3</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="11"/>
-      <c r="AE58" s="9"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="14"/>
+      <c r="AE58" s="14"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="15">
         <v>3</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="11"/>
-      <c r="AE59" s="9"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="14"/>
+      <c r="AE59" s="14"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="15">
         <v>3</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="11"/>
-      <c r="AE60" s="9"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="15"/>
+      <c r="Y60" s="15"/>
+      <c r="Z60" s="14"/>
+      <c r="AE60" s="14"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="15">
         <v>3</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="11"/>
-      <c r="AE61" s="9"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="V61" s="14"/>
+      <c r="W61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="14"/>
+      <c r="AE61" s="14"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="15">
         <v>3</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="11"/>
-      <c r="AE62" s="9"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="14"/>
+      <c r="AE62" s="14"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="15">
         <v>3</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="11"/>
-      <c r="AE63" s="9"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="14"/>
+      <c r="AE63" s="14"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="15">
         <v>3</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="11"/>
-      <c r="AE64" s="9"/>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="14"/>
+      <c r="AE64" s="14"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="15">
         <v>3</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="11"/>
-      <c r="AE65" s="9"/>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="14"/>
+      <c r="AE65" s="14"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="15">
         <v>3</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="11"/>
-      <c r="AE66" s="9"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="14"/>
+      <c r="AE66" s="14"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="15">
         <v>3</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="11"/>
-      <c r="AE67" s="9"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="14"/>
+      <c r="AE67" s="14"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="15">
         <v>3</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="11"/>
-      <c r="AE68" s="9"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="14"/>
+      <c r="AE68" s="14"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="15">
         <v>3</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="11"/>
-      <c r="AE69" s="9"/>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="14"/>
+      <c r="AE69" s="14"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="15">
         <v>3</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="11"/>
-      <c r="AE70" s="9"/>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="14"/>
+      <c r="AE70" s="14"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="15">
         <v>3</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="11"/>
-      <c r="AE71" s="9"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="14"/>
+      <c r="AE71" s="14"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="15">
         <v>3</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="11"/>
-      <c r="AE72" s="9"/>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="14"/>
+      <c r="AE72" s="14"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="15">
         <v>3</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="11"/>
-      <c r="AE73" s="9"/>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="14"/>
+      <c r="AE73" s="14"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="15">
         <v>3</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="11"/>
-      <c r="AE74" s="9"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="14"/>
+      <c r="AE74" s="14"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="15">
         <v>3</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="11"/>
-      <c r="AE75" s="9"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="14"/>
+      <c r="AE75" s="14"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="15">
         <v>3</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="11"/>
-      <c r="AE76" s="9"/>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="V76" s="14"/>
+      <c r="W76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="14"/>
+      <c r="AE76" s="14"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="15">
         <v>3</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="11"/>
-      <c r="AE77" s="9"/>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="14"/>
+      <c r="AE77" s="14"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="15">
         <v>3</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="11"/>
-      <c r="AE78" s="9"/>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="14"/>
+      <c r="AE78" s="14"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="15">
         <v>3</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="V79" s="11"/>
-      <c r="W79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="11"/>
-      <c r="AE79" s="9"/>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="14"/>
+      <c r="AE79" s="14"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="15">
         <v>3</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="11"/>
-      <c r="AE80" s="9"/>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="14"/>
+      <c r="AE80" s="14"/>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="15">
         <v>3</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="11"/>
-      <c r="AA81" s="3"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
-      <c r="AD81" s="9"/>
-      <c r="AE81" s="9"/>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="14"/>
+      <c r="AA81" s="15"/>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="14"/>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="15">
         <v>3</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="11"/>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
-      <c r="AD82" s="9"/>
-      <c r="AE82" s="9"/>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="14"/>
+      <c r="AA82" s="15"/>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="15">
         <v>3</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="11"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="9"/>
-      <c r="AE83" s="9"/>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="14"/>
+      <c r="AA83" s="15"/>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="14"/>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="15">
         <v>3</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="11"/>
-      <c r="AA84" s="3"/>
-      <c r="AB84" s="3"/>
-      <c r="AC84" s="3"/>
-      <c r="AD84" s="9"/>
-      <c r="AE84" s="9"/>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="14"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="14"/>
+      <c r="AE84" s="14"/>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="15">
         <v>3</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="V85" s="3"/>
-      <c r="W85" s="3"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="11"/>
-      <c r="AA85" s="3"/>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="3"/>
-      <c r="AD85" s="9"/>
-      <c r="AE85" s="9"/>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="14"/>
+      <c r="AA85" s="15"/>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="14"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="15">
         <v>3</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="V86" s="3"/>
-      <c r="W86" s="3"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="11"/>
-      <c r="AA86" s="3"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="3"/>
-      <c r="AD86" s="9"/>
-      <c r="AE86" s="9"/>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="14"/>
+      <c r="AA86" s="15"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="15"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="14"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="15">
         <v>3</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="V87" s="3"/>
-      <c r="W87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="11"/>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
-      <c r="AD87" s="9"/>
-      <c r="AE87" s="9"/>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="14"/>
+      <c r="AA87" s="15"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="14"/>
+      <c r="AE87" s="14"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="15">
         <v>3</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
-      <c r="Y88" s="11"/>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="11"/>
-      <c r="AD88" s="9"/>
-      <c r="AE88" s="9"/>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="Y88" s="14"/>
+      <c r="Z88" s="15"/>
+      <c r="AA88" s="15"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="14"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="14"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="15">
         <v>3</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="V89" s="3"/>
-      <c r="W89" s="3"/>
-      <c r="Y89" s="11"/>
-      <c r="Z89" s="3"/>
-      <c r="AA89" s="3"/>
-      <c r="AB89" s="3"/>
-      <c r="AC89" s="11"/>
-      <c r="AD89" s="9"/>
-      <c r="AE89" s="9"/>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="Y89" s="14"/>
+      <c r="Z89" s="15"/>
+      <c r="AA89" s="15"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="14"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="14"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="15">
         <v>3</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
-      <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-      <c r="Y90" s="11"/>
-      <c r="Z90" s="3"/>
-      <c r="AA90" s="3"/>
-      <c r="AB90" s="3"/>
-      <c r="AC90" s="11"/>
-      <c r="AD90" s="9"/>
-      <c r="AE90" s="9"/>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="Y90" s="14"/>
+      <c r="Z90" s="15"/>
+      <c r="AA90" s="15"/>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="14"/>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="14"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="15">
         <v>3</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="V91" s="3"/>
-      <c r="W91" s="3"/>
-      <c r="Y91" s="11"/>
-      <c r="Z91" s="3"/>
-      <c r="AA91" s="3"/>
-      <c r="AB91" s="3"/>
-      <c r="AC91" s="11"/>
-      <c r="AD91" s="9"/>
-      <c r="AE91" s="9"/>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="Y91" s="14"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="15"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="14"/>
+      <c r="AD91" s="14"/>
+      <c r="AE91" s="14"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="15">
         <v>3</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-      <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
-      <c r="Y92" s="11"/>
-      <c r="Z92" s="11"/>
-      <c r="AA92" s="3"/>
-      <c r="AB92" s="3"/>
-      <c r="AC92" s="11"/>
-      <c r="AD92" s="9"/>
-      <c r="AE92" s="9"/>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="Y92" s="14"/>
+      <c r="Z92" s="14"/>
+      <c r="AA92" s="15"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="14"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="14"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="15">
         <v>3</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
-      <c r="V93" s="3"/>
-      <c r="Y93" s="11"/>
-      <c r="Z93" s="11"/>
-      <c r="AA93" s="3"/>
-      <c r="AB93" s="3"/>
-      <c r="AC93" s="11"/>
-      <c r="AD93" s="9"/>
-      <c r="AE93" s="9"/>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+      <c r="V93" s="15"/>
+      <c r="Y93" s="14"/>
+      <c r="Z93" s="14"/>
+      <c r="AA93" s="15"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="14"/>
+      <c r="AD93" s="14"/>
+      <c r="AE93" s="14"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="15">
         <v>3</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
-      <c r="V94" s="3"/>
-      <c r="Y94" s="11"/>
-      <c r="Z94" s="11"/>
-      <c r="AA94" s="3"/>
-      <c r="AB94" s="3"/>
-      <c r="AC94" s="11"/>
-      <c r="AD94" s="9"/>
-      <c r="AE94" s="9"/>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="V94" s="15"/>
+      <c r="Y94" s="14"/>
+      <c r="Z94" s="14"/>
+      <c r="AA94" s="15"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="14"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="14"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="15">
         <v>3</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-      <c r="V95" s="3"/>
-      <c r="Y95" s="11"/>
-      <c r="Z95" s="11"/>
-      <c r="AA95" s="3"/>
-      <c r="AB95" s="3"/>
-      <c r="AC95" s="11"/>
-      <c r="AD95" s="9"/>
-      <c r="AE95" s="9"/>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="V95" s="15"/>
+      <c r="Y95" s="14"/>
+      <c r="Z95" s="14"/>
+      <c r="AA95" s="15"/>
+      <c r="AB95" s="15"/>
+      <c r="AC95" s="14"/>
+      <c r="AD95" s="14"/>
+      <c r="AE95" s="14"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="15">
         <v>3</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
-      <c r="V96" s="3"/>
-      <c r="Y96" s="11"/>
-      <c r="Z96" s="11"/>
-      <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="11"/>
-      <c r="AD96" s="9"/>
-      <c r="AE96" s="9"/>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="V96" s="15"/>
+      <c r="Y96" s="14"/>
+      <c r="Z96" s="14"/>
+      <c r="AA96" s="15"/>
+      <c r="AB96" s="15"/>
+      <c r="AC96" s="14"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="14"/>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="15">
         <v>3</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="V97" s="3"/>
-      <c r="W97" s="3"/>
-      <c r="Y97" s="11"/>
-      <c r="Z97" s="3"/>
-      <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="11"/>
-      <c r="AD97" s="9"/>
-      <c r="AE97" s="9"/>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="V97" s="15"/>
+      <c r="W97" s="15"/>
+      <c r="Y97" s="14"/>
+      <c r="Z97" s="15"/>
+      <c r="AA97" s="15"/>
+      <c r="AB97" s="15"/>
+      <c r="AC97" s="14"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="14"/>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="15">
         <v>3</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-      <c r="Y98" s="11"/>
-      <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="11"/>
-      <c r="AD98" s="9"/>
-      <c r="AE98" s="9"/>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="V98" s="15"/>
+      <c r="W98" s="15"/>
+      <c r="Y98" s="14"/>
+      <c r="Z98" s="15"/>
+      <c r="AA98" s="15"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="14"/>
+      <c r="AD98" s="14"/>
+      <c r="AE98" s="14"/>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="15">
         <v>3</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-      <c r="Y99" s="11"/>
-      <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="11"/>
-      <c r="AD99" s="9"/>
-      <c r="AE99" s="9"/>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="V99" s="15"/>
+      <c r="W99" s="15"/>
+      <c r="Y99" s="14"/>
+      <c r="Z99" s="15"/>
+      <c r="AA99" s="15"/>
+      <c r="AB99" s="15"/>
+      <c r="AC99" s="14"/>
+      <c r="AD99" s="14"/>
+      <c r="AE99" s="14"/>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="15">
         <v>3</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
-      <c r="Y100" s="11"/>
-      <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="11"/>
-      <c r="AD100" s="9"/>
-      <c r="AE100" s="9"/>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="V100" s="15"/>
+      <c r="W100" s="15"/>
+      <c r="Y100" s="14"/>
+      <c r="Z100" s="15"/>
+      <c r="AA100" s="15"/>
+      <c r="AB100" s="15"/>
+      <c r="AC100" s="14"/>
+      <c r="AD100" s="14"/>
+      <c r="AE100" s="14"/>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="15">
         <v>3</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="V101" s="3"/>
-      <c r="W101" s="3"/>
-      <c r="Y101" s="11"/>
-      <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="11"/>
-      <c r="AD101" s="9"/>
-      <c r="AE101" s="9"/>
-    </row>
-    <row r="102" spans="1:31" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="V101" s="15"/>
+      <c r="W101" s="15"/>
+      <c r="Y101" s="14"/>
+      <c r="Z101" s="15"/>
+      <c r="AA101" s="15"/>
+      <c r="AB101" s="15"/>
+      <c r="AC101" s="14"/>
+      <c r="AD101" s="14"/>
+      <c r="AE101" s="14"/>
+    </row>
+    <row r="102" spans="1:31" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="15">
         <v>3</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
-      <c r="V102" s="3"/>
-      <c r="W102" s="3"/>
-      <c r="Y102" s="11"/>
-      <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
-      <c r="AC102" s="11"/>
-      <c r="AD102" s="9"/>
-      <c r="AE102" s="9"/>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="V102" s="15"/>
+      <c r="W102" s="15"/>
+      <c r="Y102" s="14"/>
+      <c r="Z102" s="15"/>
+      <c r="AA102" s="15"/>
+      <c r="AB102" s="15"/>
+      <c r="AC102" s="14"/>
+      <c r="AD102" s="14"/>
+      <c r="AE102" s="14"/>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A103" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="15">
         <v>3</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
-      <c r="V103" s="3"/>
-      <c r="W103" s="3"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
-      <c r="AA103" s="11"/>
-      <c r="AB103" s="11"/>
-      <c r="AC103" s="11"/>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="V103" s="15"/>
+      <c r="W103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="15"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="14"/>
+      <c r="AC103" s="14"/>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A104" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="15">
         <v>3</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="10"/>
-      <c r="P104" s="10"/>
-      <c r="V104" s="3"/>
-      <c r="W104" s="3"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
-      <c r="AA104" s="11"/>
-      <c r="AB104" s="11"/>
-      <c r="AC104" s="11"/>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+      <c r="V104" s="15"/>
+      <c r="W104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="15"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="14"/>
+      <c r="AC104" s="14"/>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A105" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="15">
         <v>3</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="10"/>
-      <c r="P105" s="10"/>
-      <c r="V105" s="3"/>
-      <c r="W105" s="3"/>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
-      <c r="AA105" s="11"/>
-      <c r="AB105" s="11"/>
-      <c r="AC105" s="11"/>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+      <c r="V105" s="15"/>
+      <c r="W105" s="15"/>
+      <c r="Y105" s="15"/>
+      <c r="Z105" s="15"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="14"/>
+      <c r="AC105" s="14"/>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A106" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="15">
         <v>3</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-      <c r="V106" s="3"/>
-      <c r="W106" s="3"/>
-      <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
-      <c r="AA106" s="11"/>
-      <c r="AB106" s="11"/>
-      <c r="AC106" s="11"/>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+      <c r="V106" s="15"/>
+      <c r="W106" s="15"/>
+      <c r="Y106" s="15"/>
+      <c r="Z106" s="15"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="14"/>
+      <c r="AC106" s="14"/>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A107" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="15">
         <v>3</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="10"/>
-      <c r="P107" s="10"/>
-      <c r="V107" s="3"/>
-      <c r="W107" s="3"/>
-      <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
-      <c r="AA107" s="11"/>
-      <c r="AB107" s="11"/>
-      <c r="AC107" s="11"/>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="V107" s="15"/>
+      <c r="W107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="15"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="14"/>
+      <c r="AC107" s="14"/>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A108" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="15">
         <v>3</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="10"/>
-      <c r="P108" s="10"/>
-      <c r="V108" s="3"/>
-      <c r="W108" s="3"/>
-      <c r="Y108" s="3"/>
-      <c r="Z108" s="3"/>
-      <c r="AA108" s="11"/>
-      <c r="AB108" s="11"/>
-      <c r="AC108" s="11"/>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="16"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="14"/>
+      <c r="AC108" s="14"/>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A109" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="15">
         <v>3</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="V109" s="3"/>
-      <c r="W109" s="3"/>
-      <c r="Y109" s="3"/>
-      <c r="Z109" s="3"/>
-      <c r="AA109" s="11"/>
-      <c r="AB109" s="11"/>
-      <c r="AC109" s="11"/>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="16"/>
+      <c r="V109" s="15"/>
+      <c r="W109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="15"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="14"/>
+      <c r="AC109" s="14"/>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A110" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="15">
         <v>3</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="10"/>
-      <c r="V110" s="3"/>
-      <c r="W110" s="3"/>
-      <c r="Y110" s="3"/>
-      <c r="Z110" s="3"/>
-      <c r="AA110" s="11"/>
-      <c r="AB110" s="11"/>
-      <c r="AC110" s="11"/>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="16"/>
+      <c r="V110" s="15"/>
+      <c r="W110" s="15"/>
+      <c r="Y110" s="15"/>
+      <c r="Z110" s="15"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="14"/>
+      <c r="AC110" s="14"/>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A111" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="15">
         <v>3</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="10"/>
-      <c r="P111" s="10"/>
-      <c r="V111" s="3"/>
-      <c r="W111" s="3"/>
-      <c r="Y111" s="3"/>
-      <c r="Z111" s="3"/>
-      <c r="AA111" s="11"/>
-      <c r="AB111" s="11"/>
-      <c r="AC111" s="11"/>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="16"/>
+      <c r="V111" s="15"/>
+      <c r="W111" s="15"/>
+      <c r="Y111" s="15"/>
+      <c r="Z111" s="15"/>
+      <c r="AA111" s="14"/>
+      <c r="AB111" s="14"/>
+      <c r="AC111" s="14"/>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A112" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="15">
         <v>3</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="10"/>
-      <c r="P112" s="10"/>
-      <c r="V112" s="3"/>
-      <c r="W112" s="3"/>
-      <c r="Y112" s="3"/>
-      <c r="Z112" s="3"/>
-      <c r="AA112" s="11"/>
-      <c r="AB112" s="11"/>
-      <c r="AC112" s="11"/>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="16"/>
+      <c r="V112" s="15"/>
+      <c r="W112" s="15"/>
+      <c r="Y112" s="15"/>
+      <c r="Z112" s="15"/>
+      <c r="AA112" s="14"/>
+      <c r="AB112" s="14"/>
+      <c r="AC112" s="14"/>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="15">
         <v>3</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="10"/>
-      <c r="T113" s="10"/>
-      <c r="U113" s="10"/>
-      <c r="V113" s="3"/>
-      <c r="W113" s="3"/>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-      <c r="AA113" s="11"/>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="16"/>
+      <c r="U113" s="16"/>
+      <c r="V113" s="15"/>
+      <c r="W113" s="15"/>
+      <c r="Y113" s="15"/>
+      <c r="Z113" s="15"/>
+      <c r="AA113" s="14"/>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="15">
         <v>3</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="10"/>
-      <c r="T114" s="10"/>
-      <c r="U114" s="10"/>
-      <c r="V114" s="3"/>
-      <c r="W114" s="3"/>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
-      <c r="AA114" s="11"/>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="O115" s="11"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11"/>
-      <c r="V115" s="3"/>
-      <c r="W115" s="3"/>
-      <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
-      <c r="AA115" s="11"/>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="16"/>
+      <c r="U114" s="16"/>
+      <c r="V114" s="15"/>
+      <c r="W114" s="15"/>
+      <c r="Y114" s="15"/>
+      <c r="Z114" s="15"/>
+      <c r="AA114" s="14"/>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A115" s="14"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
+      <c r="R115" s="14"/>
+      <c r="S115" s="14"/>
+      <c r="T115" s="14"/>
+      <c r="U115" s="14"/>
+      <c r="V115" s="15"/>
+      <c r="W115" s="15"/>
+      <c r="Y115" s="15"/>
+      <c r="Z115" s="15"/>
+      <c r="AA115" s="14"/>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A116" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="15">
         <v>4</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="1"/>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G116" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="H116" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="I116" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J116" s="3" t="s">
+      <c r="J116" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K116" s="3" t="s">
+      <c r="K116" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L116" s="3" t="s">
+      <c r="L116" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M116" s="3" t="s">
+      <c r="M116" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N116" s="3" t="s">
+      <c r="N116" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O116" s="3" t="s">
+      <c r="O116" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P116" s="3" t="s">
+      <c r="P116" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q116" s="3" t="s">
+      <c r="Q116" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R116" s="7" t="s">
+      <c r="R116" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S116" s="7" t="s">
+      <c r="S116" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="T116" s="7" t="s">
+      <c r="T116" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U116" s="7" t="s">
+      <c r="U116" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V116" s="10" t="s">
+      <c r="V116" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="W116" s="10" t="s">
+      <c r="W116" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="X116" s="10" t="s">
+      <c r="X116" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Y116" s="11" t="s">
+      <c r="Y116" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z116" s="11" t="s">
+      <c r="Z116" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AA116" s="9" t="s">
+      <c r="AA116" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AB116" s="11"/>
-      <c r="AC116"/>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="AB116" s="14"/>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A117" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="15">
         <v>4</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D117" s="1"/>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I117" s="3" t="s">
+      <c r="I117" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="J117" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K117" s="3" t="s">
+      <c r="K117" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L117" s="3" t="s">
+      <c r="L117" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M117" s="3" t="s">
+      <c r="M117" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N117" s="3" t="s">
+      <c r="N117" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O117" s="3" t="s">
+      <c r="O117" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P117" s="3" t="s">
+      <c r="P117" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q117" s="3" t="s">
+      <c r="Q117" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R117" s="7" t="s">
+      <c r="R117" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S117" s="7" t="s">
+      <c r="S117" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="T117" s="7" t="s">
+      <c r="T117" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U117" s="7" t="s">
+      <c r="U117" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V117" s="10" t="s">
+      <c r="V117" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="W117" s="10" t="s">
+      <c r="W117" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="X117" s="10" t="s">
+      <c r="X117" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Y117" s="11" t="s">
+      <c r="Y117" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z117" s="11" t="s">
+      <c r="Z117" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AA117" s="9" t="s">
+      <c r="AA117" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AB117" s="11"/>
-      <c r="AC117"/>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="AB117" s="14"/>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A118" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="15">
         <v>4</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D118" s="1"/>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H118" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="I118" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="J118" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K118" s="3" t="s">
+      <c r="K118" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L118" s="3" t="s">
+      <c r="L118" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M118" s="3" t="s">
+      <c r="M118" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N118" s="3" t="s">
+      <c r="N118" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O118" s="3" t="s">
+      <c r="O118" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P118" s="3" t="s">
+      <c r="P118" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q118" s="3" t="s">
+      <c r="Q118" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R118" s="7" t="s">
+      <c r="R118" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S118" s="7" t="s">
+      <c r="S118" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="T118" s="7" t="s">
+      <c r="T118" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U118" s="7" t="s">
+      <c r="U118" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V118" s="10" t="s">
+      <c r="V118" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="W118" s="10" t="s">
+      <c r="W118" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="X118" s="10" t="s">
+      <c r="X118" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Y118" s="11" t="s">
+      <c r="Y118" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z118" s="11" t="s">
+      <c r="Z118" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AA118" s="9" t="s">
+      <c r="AA118" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AB118" s="11"/>
-      <c r="AC118"/>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="AB118" s="14"/>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A119" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="15">
         <v>4</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D119" s="1"/>
-      <c r="F119" s="3" t="s">
+      <c r="F119" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G119" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="H119" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I119" s="3" t="s">
+      <c r="I119" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="J119" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K119" s="3" t="s">
+      <c r="K119" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L119" s="3" t="s">
+      <c r="L119" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M119" s="3" t="s">
+      <c r="M119" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N119" s="3" t="s">
+      <c r="N119" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O119" s="3" t="s">
+      <c r="O119" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P119" s="3" t="s">
+      <c r="P119" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q119" s="3" t="s">
+      <c r="Q119" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R119" s="7" t="s">
+      <c r="R119" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S119" s="7" t="s">
+      <c r="S119" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="T119" s="7" t="s">
+      <c r="T119" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U119" s="7" t="s">
+      <c r="U119" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V119" s="10" t="s">
+      <c r="V119" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="W119" s="10" t="s">
+      <c r="W119" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="X119" s="10" t="s">
+      <c r="X119" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Y119" s="11" t="s">
+      <c r="Y119" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z119" s="11" t="s">
+      <c r="Z119" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AA119" s="9" t="s">
+      <c r="AA119" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AB119" s="11"/>
-      <c r="AC119"/>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="AB119" s="14"/>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A120" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="15">
         <v>4</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D120" s="1"/>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H120" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="I120" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="J120" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K120" s="3" t="s">
+      <c r="K120" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="L120" s="3" t="s">
+      <c r="L120" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M120" s="3" t="s">
+      <c r="M120" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N120" s="3" t="s">
+      <c r="N120" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O120" s="3" t="s">
+      <c r="O120" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P120" s="3" t="s">
+      <c r="P120" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q120" s="3" t="s">
+      <c r="Q120" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R120" s="7" t="s">
+      <c r="R120" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S120" s="7" t="s">
+      <c r="S120" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="T120" s="7" t="s">
+      <c r="T120" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="U120" s="7" t="s">
+      <c r="U120" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V120" s="10" t="s">
+      <c r="V120" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="W120" s="10" t="s">
+      <c r="W120" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="X120" s="10" t="s">
+      <c r="X120" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Y120" s="11" t="s">
+      <c r="Y120" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="Z120" s="11" t="s">
+      <c r="Z120" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AA120" s="9" t="s">
+      <c r="AA120" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AB120" s="11"/>
-      <c r="AC120"/>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="AB120" s="14"/>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A121" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="15">
         <v>4</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A122" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="15">
         <v>4</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A123" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="15">
         <v>4</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A124" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="15">
         <v>4</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A125" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="15">
         <v>4</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="15">
         <v>4</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A127" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="15">
         <v>4</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="15">
         <v>4</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="15">
         <v>4</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="15">
         <v>4</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="15">
         <v>4</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="15">
         <v>4</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="15">
         <v>4</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="15">
         <v>4</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="15">
         <v>4</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="15">
         <v>4</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="15">
         <v>4</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="15">
         <v>4</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="15">
         <v>4</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="15">
         <v>4</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="15">
         <v>4</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="15">
         <v>4</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="15">
         <v>4</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="15">
         <v>4</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="15">
         <v>4</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="15">
         <v>4</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="15">
         <v>4</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="15">
         <v>4</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="15">
         <v>4</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="15">
         <v>4</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="15">
         <v>4</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="15">
         <v>4</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="15">
         <v>4</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="15">
         <v>4</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="15">
         <v>4</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="15">
         <v>4</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="15">
         <v>4</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="15">
         <v>4</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="15">
         <v>4</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="15">
         <v>4</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="15">
         <v>4</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="15">
         <v>4</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="15">
         <v>4</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="15">
         <v>4</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="15">
         <v>4</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="15">
         <v>4</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="15">
         <v>4</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="15">
         <v>4</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="15">
         <v>4</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="15">
         <v>4</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="15">
         <v>4</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="15">
         <v>4</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="15">
         <v>4</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="15">
         <v>4</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="15">
         <v>4</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="15">
         <v>4</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A177" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="15">
         <v>4</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A178" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="15">
         <v>4</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A179" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="15">
         <v>4</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A180" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="15">
         <v>4</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A181" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="15">
         <v>4</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A182" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="15">
         <v>4</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A183" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="15">
         <v>4</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A184" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="15">
         <v>4</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A185" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="15">
         <v>4</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A186" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="15">
         <v>4</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A187" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="15">
         <v>4</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A188" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="15">
         <v>4</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O188" s="7"/>
-      <c r="P188" s="7"/>
-      <c r="Q188" s="7"/>
-      <c r="R188" s="7"/>
-      <c r="S188" s="10"/>
-      <c r="T188" s="10"/>
-      <c r="U188" s="10"/>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+      <c r="O188" s="10"/>
+      <c r="P188" s="10"/>
+      <c r="Q188" s="10"/>
+      <c r="R188" s="10"/>
+      <c r="S188" s="16"/>
+      <c r="T188" s="16"/>
+      <c r="U188" s="16"/>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A189" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="15">
         <v>4</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="O189" s="7"/>
-      <c r="P189" s="7"/>
-      <c r="Q189" s="7"/>
-      <c r="R189" s="7"/>
-      <c r="S189" s="10"/>
-      <c r="T189" s="10"/>
-      <c r="U189" s="10"/>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D191" s="1"/>
+      <c r="O189" s="10"/>
+      <c r="P189" s="10"/>
+      <c r="Q189" s="10"/>
+      <c r="R189" s="10"/>
+      <c r="S189" s="16"/>
+      <c r="T189" s="16"/>
+      <c r="U189" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9397,56 +9371,56 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="85.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="2:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>360</v>
       </c>
     </row>
@@ -9464,58 +9438,58 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:2" ht="180" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="2:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:2" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="2:2" ht="60" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
         <v>368</v>
       </c>
     </row>
@@ -9533,362 +9507,362 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:115" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AH1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AI1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AK1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AL1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AM1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AN1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AO1" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AP1" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AR1" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="AS1" s="17" t="s">
+      <c r="AS1" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AT1" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="AU1" s="17" t="s">
+      <c r="AU1" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AV1" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="AW1" s="17" t="s">
+      <c r="AW1" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AX1" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="AY1" s="17" t="s">
+      <c r="AY1" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="BA1" s="17" t="s">
+      <c r="BA1" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="BB1" s="17" t="s">
+      <c r="BB1" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="BC1" s="17" t="s">
+      <c r="BC1" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="BD1" s="17" t="s">
+      <c r="BD1" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="BE1" s="17" t="s">
+      <c r="BE1" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="BF1" s="17" t="s">
+      <c r="BF1" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="BG1" s="17" t="s">
+      <c r="BG1" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="BH1" s="17" t="s">
+      <c r="BH1" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="BI1" s="17" t="s">
+      <c r="BI1" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="BJ1" s="17" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="BK1" s="17" t="s">
+      <c r="BK1" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="BL1" s="17" t="s">
+      <c r="BL1" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="BM1" s="17" t="s">
+      <c r="BM1" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="BN1" s="17" t="s">
+      <c r="BN1" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="BO1" s="17" t="s">
+      <c r="BO1" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="BP1" s="17" t="s">
+      <c r="BP1" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="BQ1" s="17" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="BR1" s="17" t="s">
+      <c r="BR1" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="BS1" s="17" t="s">
+      <c r="BS1" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="BT1" s="17" t="s">
+      <c r="BT1" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="BU1" s="17" t="s">
+      <c r="BU1" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="BV1" s="17" t="s">
+      <c r="BV1" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="BW1" s="17" t="s">
+      <c r="BW1" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="BX1" s="17" t="s">
+      <c r="BX1" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="BY1" s="17" t="s">
+      <c r="BY1" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="BZ1" s="17" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="CA1" s="17" t="s">
+      <c r="CA1" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="CB1" s="17" t="s">
+      <c r="CB1" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="CC1" s="17" t="s">
+      <c r="CC1" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="CD1" s="17" t="s">
+      <c r="CD1" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="CE1" s="17" t="s">
+      <c r="CE1" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="CF1" s="17" t="s">
+      <c r="CF1" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="CG1" s="17" t="s">
+      <c r="CG1" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="CH1" s="17" t="s">
+      <c r="CH1" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="CI1" s="17" t="s">
+      <c r="CI1" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="CJ1" s="17" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="CK1" s="17" t="s">
+      <c r="CK1" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="CL1" s="17" t="s">
+      <c r="CL1" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="CM1" s="17" t="s">
+      <c r="CM1" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="CN1" s="17" t="s">
+      <c r="CN1" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="CO1" s="17" t="s">
+      <c r="CO1" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="CP1" s="17" t="s">
+      <c r="CP1" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="CQ1" s="17" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="CR1" s="17" t="s">
+      <c r="CR1" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="CS1" s="17" t="s">
+      <c r="CS1" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="CT1" s="17" t="s">
+      <c r="CT1" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="CU1" s="17" t="s">
+      <c r="CU1" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="CV1" s="17" t="s">
+      <c r="CV1" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="CW1" s="17" t="s">
+      <c r="CW1" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="CX1" s="17" t="s">
+      <c r="CX1" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="CY1" s="17" t="s">
+      <c r="CY1" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="CZ1" s="17" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="DA1" s="17" t="s">
+      <c r="DA1" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="DB1" s="17" t="s">
+      <c r="DB1" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="DC1" s="17" t="s">
+      <c r="DC1" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="DD1" s="17" t="s">
+      <c r="DD1" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="DE1" s="17" t="s">
+      <c r="DE1" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="DF1" s="17" t="s">
+      <c r="DF1" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="DG1" s="17" t="s">
+      <c r="DG1" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="DH1" s="17" t="s">
+      <c r="DH1" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="DI1" s="17" t="s">
+      <c r="DI1" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="DJ1" s="17" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="DK1" s="17" t="s">
+      <c r="DK1" s="7" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+    <row r="2" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
       <c r="C2" t="s">
         <v>483</v>
       </c>
@@ -9905,7 +9879,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>487</v>
       </c>
@@ -9925,7 +9899,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>491</v>
       </c>
@@ -9942,7 +9916,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>494</v>
       </c>
@@ -9956,7 +9930,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="6" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>496</v>
       </c>
@@ -9973,7 +9947,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>499</v>
       </c>
@@ -10002,7 +9976,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>506</v>
       </c>
@@ -10016,7 +9990,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>509</v>
       </c>
@@ -10027,7 +10001,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>511</v>
       </c>
@@ -10050,7 +10024,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>517</v>
       </c>
@@ -10061,7 +10035,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="12" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>519</v>
       </c>
@@ -10075,7 +10049,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="13" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>522</v>
       </c>
@@ -10086,7 +10060,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>524</v>
       </c>
@@ -10097,7 +10071,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>526</v>
       </c>
@@ -10111,7 +10085,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>529</v>
       </c>
@@ -10137,7 +10111,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>536</v>
       </c>
@@ -10169,7 +10143,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>545</v>
       </c>
@@ -10180,7 +10154,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>547</v>
       </c>
@@ -10215,7 +10189,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>557</v>
       </c>
@@ -10226,7 +10200,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>559</v>
       </c>
@@ -10240,7 +10214,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>562</v>
       </c>
@@ -10257,7 +10231,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>566</v>
       </c>
@@ -10277,7 +10251,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>571</v>
       </c>
@@ -10291,7 +10265,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>574</v>
       </c>

--- a/inst/2023-mht/dataDictionary20230526.xlsx
+++ b/inst/2023-mht/dataDictionary20230526.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/containers/volumes/workbench/r-packages/swereg/inst/2023-mht/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056F6E0C-8CCA-5648-A2FA-30C411C24739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6170A27-C222-CC48-ACAA-A0225C14A2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="6100" windowWidth="40620" windowHeight="21840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="578">
   <si>
     <t>Grupp</t>
   </si>
@@ -1049,9 +1049,6 @@
   </si>
   <si>
     <t>doesnotinclude30</t>
-  </si>
-  <si>
-    <t>local_mht</t>
   </si>
   <si>
     <t>systemic_mht</t>
@@ -5361,7 +5358,7 @@
   <dimension ref="A1:AI189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5489,7 +5486,7 @@
     </row>
     <row r="2" spans="1:35" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -5513,8 +5510,8 @@
       <c r="AA2" s="14"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>339</v>
+      <c r="A3" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -5548,7 +5545,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -5559,7 +5556,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -5570,7 +5567,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -5581,7 +5578,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -5592,7 +5589,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
@@ -5603,7 +5600,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
@@ -5614,7 +5611,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -5625,7 +5622,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
@@ -5636,7 +5633,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
@@ -5647,7 +5644,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -5658,7 +5655,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -5669,7 +5666,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -5680,7 +5677,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -5691,7 +5688,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -5702,7 +5699,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
@@ -5713,7 +5710,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
@@ -5724,7 +5721,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B21" s="15">
         <v>2</v>
@@ -5735,7 +5732,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B22" s="15">
         <v>2</v>
@@ -5746,7 +5743,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
@@ -5757,7 +5754,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B24" s="15">
         <v>2</v>
@@ -5768,7 +5765,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B25" s="15">
         <v>2</v>
@@ -5779,7 +5776,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B26" s="15">
         <v>2</v>
@@ -5790,7 +5787,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B27" s="15">
         <v>2</v>
@@ -5801,7 +5798,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B28" s="15">
         <v>2</v>
@@ -5812,7 +5809,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B29" s="15">
         <v>2</v>
@@ -5823,7 +5820,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B30" s="15">
         <v>2</v>
@@ -5834,7 +5831,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B31" s="15">
         <v>2</v>
@@ -5845,7 +5842,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B32" s="15">
         <v>2</v>
@@ -5856,7 +5853,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B33" s="15">
         <v>2</v>
@@ -5867,7 +5864,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B34" s="15">
         <v>2</v>
@@ -5878,7 +5875,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B35" s="15">
         <v>2</v>
@@ -5889,7 +5886,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B36" s="15">
         <v>2</v>
@@ -5900,7 +5897,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B37" s="15">
         <v>2</v>
@@ -5911,7 +5908,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B38" s="15">
         <v>2</v>
@@ -5925,7 +5922,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" s="15">
         <v>2</v>
@@ -5939,7 +5936,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B41" s="15">
         <v>3</v>
@@ -6017,7 +6014,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42" s="15">
         <v>3</v>
@@ -6095,7 +6092,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" s="15">
         <v>3</v>
@@ -6173,7 +6170,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" s="15">
         <v>3</v>
@@ -6251,7 +6248,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B45" s="15">
         <v>3</v>
@@ -6329,7 +6326,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" s="15">
         <v>3</v>
@@ -6342,7 +6339,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B47" s="15">
         <v>3</v>
@@ -6355,7 +6352,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="15">
         <v>3</v>
@@ -6368,7 +6365,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="15">
         <v>3</v>
@@ -6381,7 +6378,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="15">
         <v>3</v>
@@ -6394,7 +6391,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="15">
         <v>3</v>
@@ -6407,7 +6404,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B52" s="15">
         <v>3</v>
@@ -6420,7 +6417,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B53" s="15">
         <v>3</v>
@@ -6433,7 +6430,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B54" s="15">
         <v>3</v>
@@ -6446,7 +6443,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B55" s="15">
         <v>3</v>
@@ -6459,7 +6456,7 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B56" s="15">
         <v>3</v>
@@ -6484,7 +6481,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B57" s="15">
         <v>3</v>
@@ -6509,7 +6506,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B58" s="15">
         <v>3</v>
@@ -6534,7 +6531,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B59" s="15">
         <v>3</v>
@@ -6559,7 +6556,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B60" s="15">
         <v>3</v>
@@ -6584,7 +6581,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B61" s="15">
         <v>3</v>
@@ -6609,7 +6606,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B62" s="15">
         <v>3</v>
@@ -6634,7 +6631,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B63" s="15">
         <v>3</v>
@@ -6659,7 +6656,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B64" s="15">
         <v>3</v>
@@ -6684,7 +6681,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B65" s="15">
         <v>3</v>
@@ -6709,7 +6706,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B66" s="15">
         <v>3</v>
@@ -6734,7 +6731,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B67" s="15">
         <v>3</v>
@@ -6759,7 +6756,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B68" s="15">
         <v>3</v>
@@ -6784,7 +6781,7 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="15">
         <v>3</v>
@@ -6809,7 +6806,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B70" s="15">
         <v>3</v>
@@ -6834,7 +6831,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B71" s="15">
         <v>3</v>
@@ -6859,7 +6856,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B72" s="15">
         <v>3</v>
@@ -6884,7 +6881,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B73" s="15">
         <v>3</v>
@@ -6909,7 +6906,7 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B74" s="15">
         <v>3</v>
@@ -6934,7 +6931,7 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B75" s="15">
         <v>3</v>
@@ -6959,7 +6956,7 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B76" s="15">
         <v>3</v>
@@ -6984,7 +6981,7 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B77" s="15">
         <v>3</v>
@@ -7009,7 +7006,7 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B78" s="15">
         <v>3</v>
@@ -7034,7 +7031,7 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B79" s="15">
         <v>3</v>
@@ -7059,7 +7056,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B80" s="15">
         <v>3</v>
@@ -7084,7 +7081,7 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B81" s="15">
         <v>3</v>
@@ -7104,7 +7101,7 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B82" s="15">
         <v>3</v>
@@ -7124,7 +7121,7 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B83" s="15">
         <v>3</v>
@@ -7153,7 +7150,7 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B84" s="15">
         <v>3</v>
@@ -7182,7 +7179,7 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B85" s="15">
         <v>3</v>
@@ -7211,7 +7208,7 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B86" s="15">
         <v>3</v>
@@ -7240,7 +7237,7 @@
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B87" s="15">
         <v>3</v>
@@ -7269,7 +7266,7 @@
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B88" s="15">
         <v>3</v>
@@ -7298,7 +7295,7 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B89" s="15">
         <v>3</v>
@@ -7327,7 +7324,7 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B90" s="15">
         <v>3</v>
@@ -7356,7 +7353,7 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B91" s="15">
         <v>3</v>
@@ -7385,7 +7382,7 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B92" s="15">
         <v>3</v>
@@ -7414,7 +7411,7 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B93" s="15">
         <v>3</v>
@@ -7442,7 +7439,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B94" s="15">
         <v>3</v>
@@ -7470,7 +7467,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B95" s="15">
         <v>3</v>
@@ -7498,7 +7495,7 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B96" s="15">
         <v>3</v>
@@ -7526,7 +7523,7 @@
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B97" s="15">
         <v>3</v>
@@ -7555,7 +7552,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B98" s="15">
         <v>3</v>
@@ -7584,7 +7581,7 @@
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B99" s="15">
         <v>3</v>
@@ -7613,7 +7610,7 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B100" s="15">
         <v>3</v>
@@ -7642,7 +7639,7 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B101" s="15">
         <v>3</v>
@@ -7671,7 +7668,7 @@
     </row>
     <row r="102" spans="1:31" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B102" s="15">
         <v>3</v>
@@ -7700,7 +7697,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B103" s="15">
         <v>3</v>
@@ -7727,7 +7724,7 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B104" s="15">
         <v>3</v>
@@ -7754,7 +7751,7 @@
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B105" s="15">
         <v>3</v>
@@ -7781,7 +7778,7 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B106" s="15">
         <v>3</v>
@@ -7808,7 +7805,7 @@
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B107" s="15">
         <v>3</v>
@@ -7835,7 +7832,7 @@
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B108" s="15">
         <v>3</v>
@@ -7862,7 +7859,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B109" s="15">
         <v>3</v>
@@ -7889,7 +7886,7 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B110" s="15">
         <v>3</v>
@@ -7916,7 +7913,7 @@
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B111" s="15">
         <v>3</v>
@@ -7943,7 +7940,7 @@
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B112" s="15">
         <v>3</v>
@@ -7970,7 +7967,7 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B113" s="15">
         <v>3</v>
@@ -7993,7 +7990,7 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B114" s="15">
         <v>3</v>
@@ -8031,7 +8028,7 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B116" s="15">
         <v>4</v>
@@ -8109,7 +8106,7 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B117" s="15">
         <v>4</v>
@@ -8187,7 +8184,7 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B118" s="15">
         <v>4</v>
@@ -8265,7 +8262,7 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B119" s="15">
         <v>4</v>
@@ -8343,7 +8340,7 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B120" s="15">
         <v>4</v>
@@ -8421,7 +8418,7 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B121" s="15">
         <v>4</v>
@@ -8432,7 +8429,7 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B122" s="15">
         <v>4</v>
@@ -8443,7 +8440,7 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B123" s="15">
         <v>4</v>
@@ -8454,7 +8451,7 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B124" s="15">
         <v>4</v>
@@ -8465,7 +8462,7 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B125" s="15">
         <v>4</v>
@@ -8476,7 +8473,7 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B126" s="15">
         <v>4</v>
@@ -8487,7 +8484,7 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B127" s="15">
         <v>4</v>
@@ -8498,7 +8495,7 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B128" s="15">
         <v>4</v>
@@ -8509,7 +8506,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B129" s="15">
         <v>4</v>
@@ -8520,7 +8517,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B130" s="15">
         <v>4</v>
@@ -8531,7 +8528,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B131" s="15">
         <v>4</v>
@@ -8545,7 +8542,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B132" s="15">
         <v>4</v>
@@ -8559,7 +8556,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B133" s="15">
         <v>4</v>
@@ -8573,7 +8570,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B134" s="15">
         <v>4</v>
@@ -8587,7 +8584,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B135" s="15">
         <v>4</v>
@@ -8601,7 +8598,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B136" s="15">
         <v>4</v>
@@ -8615,7 +8612,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B137" s="15">
         <v>4</v>
@@ -8629,7 +8626,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B138" s="15">
         <v>4</v>
@@ -8643,7 +8640,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B139" s="15">
         <v>4</v>
@@ -8657,7 +8654,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B140" s="15">
         <v>4</v>
@@ -8671,7 +8668,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B141" s="15">
         <v>4</v>
@@ -8685,7 +8682,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B142" s="15">
         <v>4</v>
@@ -8699,7 +8696,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B143" s="15">
         <v>4</v>
@@ -8713,7 +8710,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B144" s="15">
         <v>4</v>
@@ -8727,7 +8724,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B145" s="15">
         <v>4</v>
@@ -8741,7 +8738,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B146" s="15">
         <v>4</v>
@@ -8755,7 +8752,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B147" s="15">
         <v>4</v>
@@ -8769,7 +8766,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B148" s="15">
         <v>4</v>
@@ -8783,7 +8780,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B149" s="15">
         <v>4</v>
@@ -8797,7 +8794,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B150" s="15">
         <v>4</v>
@@ -8811,7 +8808,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B151" s="15">
         <v>4</v>
@@ -8825,7 +8822,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B152" s="15">
         <v>4</v>
@@ -8839,7 +8836,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B153" s="15">
         <v>4</v>
@@ -8853,7 +8850,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B154" s="15">
         <v>4</v>
@@ -8867,7 +8864,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B155" s="15">
         <v>4</v>
@@ -8881,7 +8878,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B156" s="15">
         <v>4</v>
@@ -8895,7 +8892,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B157" s="15">
         <v>4</v>
@@ -8909,7 +8906,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B158" s="15">
         <v>4</v>
@@ -8923,7 +8920,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B159" s="15">
         <v>4</v>
@@ -8937,7 +8934,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B160" s="15">
         <v>4</v>
@@ -8951,7 +8948,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B161" s="15">
         <v>4</v>
@@ -8965,7 +8962,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B162" s="15">
         <v>4</v>
@@ -8979,7 +8976,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B163" s="15">
         <v>4</v>
@@ -8993,7 +8990,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B164" s="15">
         <v>4</v>
@@ -9007,7 +9004,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B165" s="15">
         <v>4</v>
@@ -9021,7 +9018,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B166" s="15">
         <v>4</v>
@@ -9035,7 +9032,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B167" s="15">
         <v>4</v>
@@ -9049,7 +9046,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B168" s="15">
         <v>4</v>
@@ -9063,7 +9060,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B169" s="15">
         <v>4</v>
@@ -9077,7 +9074,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B170" s="15">
         <v>4</v>
@@ -9091,7 +9088,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B171" s="15">
         <v>4</v>
@@ -9105,7 +9102,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B172" s="15">
         <v>4</v>
@@ -9119,7 +9116,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B173" s="15">
         <v>4</v>
@@ -9133,7 +9130,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B174" s="15">
         <v>4</v>
@@ -9147,7 +9144,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B175" s="15">
         <v>4</v>
@@ -9161,7 +9158,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B176" s="15">
         <v>4</v>
@@ -9172,7 +9169,7 @@
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B177" s="15">
         <v>4</v>
@@ -9183,7 +9180,7 @@
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B178" s="15">
         <v>4</v>
@@ -9197,7 +9194,7 @@
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B179" s="15">
         <v>4</v>
@@ -9211,7 +9208,7 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B180" s="15">
         <v>4</v>
@@ -9225,7 +9222,7 @@
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B181" s="15">
         <v>4</v>
@@ -9239,7 +9236,7 @@
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B182" s="15">
         <v>4</v>
@@ -9253,7 +9250,7 @@
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B183" s="15">
         <v>4</v>
@@ -9267,7 +9264,7 @@
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B184" s="15">
         <v>4</v>
@@ -9281,7 +9278,7 @@
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B185" s="15">
         <v>4</v>
@@ -9295,7 +9292,7 @@
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B186" s="15">
         <v>4</v>
@@ -9309,7 +9306,7 @@
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B187" s="15">
         <v>4</v>
@@ -9323,7 +9320,7 @@
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B188" s="15">
         <v>4</v>
@@ -9341,7 +9338,7 @@
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B189" s="15">
         <v>4</v>
@@ -9378,7 +9375,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
@@ -9386,42 +9383,42 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="68" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -9445,52 +9442,52 @@
   <sheetData>
     <row r="2" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="180" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="60" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="60" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -9516,767 +9513,767 @@
   <sheetData>
     <row r="1" spans="1:115" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>305</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AV1" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AX1" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BF1" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BI1" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BL1" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BM1" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BN1" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BP1" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BR1" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BS1" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BT1" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BU1" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BX1" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="BY1" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="CA1" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CB1" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CC1" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CD1" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CE1" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CF1" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CG1" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CH1" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CI1" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CK1" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CL1" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CM1" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CN1" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CP1" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CS1" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CT1" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CU1" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CX1" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DB1" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DC1" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DD1" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DE1" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DF1" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DG1" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="DH1" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DI1" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="DK1" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="DK1" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="C2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>484</v>
-      </c>
-      <c r="E2" t="s">
-        <v>485</v>
       </c>
       <c r="F2" t="s">
         <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F3" t="s">
         <v>487</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>488</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>489</v>
-      </c>
-      <c r="H3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F4" t="s">
         <v>491</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E4" t="s">
-        <v>485</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>492</v>
-      </c>
-      <c r="G4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F5" t="s">
         <v>494</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E5" t="s">
-        <v>485</v>
-      </c>
-      <c r="F5" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F6" t="s">
         <v>496</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E6" t="s">
-        <v>485</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>497</v>
-      </c>
-      <c r="G6" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F7" t="s">
         <v>499</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>500</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>501</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>502</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>503</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>504</v>
-      </c>
-      <c r="K7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E8" t="s">
+        <v>484</v>
+      </c>
+      <c r="F8" t="s">
         <v>506</v>
       </c>
-      <c r="E8" t="s">
-        <v>485</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>507</v>
-      </c>
-      <c r="G8" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E9" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" t="s">
         <v>509</v>
-      </c>
-      <c r="E9" t="s">
-        <v>485</v>
-      </c>
-      <c r="F9" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" t="s">
         <v>511</v>
       </c>
-      <c r="E10" t="s">
-        <v>485</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>512</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>513</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>514</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>515</v>
-      </c>
-      <c r="J10" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F11" t="s">
         <v>517</v>
-      </c>
-      <c r="E11" t="s">
-        <v>485</v>
-      </c>
-      <c r="F11" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>518</v>
+      </c>
+      <c r="E12" t="s">
+        <v>484</v>
+      </c>
+      <c r="F12" t="s">
         <v>519</v>
       </c>
-      <c r="E12" t="s">
-        <v>485</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>520</v>
-      </c>
-      <c r="G12" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
+        <v>521</v>
+      </c>
+      <c r="E13" t="s">
+        <v>484</v>
+      </c>
+      <c r="F13" t="s">
         <v>522</v>
-      </c>
-      <c r="E13" t="s">
-        <v>485</v>
-      </c>
-      <c r="F13" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>523</v>
+      </c>
+      <c r="E14" t="s">
+        <v>484</v>
+      </c>
+      <c r="F14" t="s">
         <v>524</v>
-      </c>
-      <c r="E14" t="s">
-        <v>485</v>
-      </c>
-      <c r="F14" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C15" t="s">
         <v>526</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>484</v>
+      </c>
+      <c r="F15" t="s">
         <v>527</v>
-      </c>
-      <c r="E15" t="s">
-        <v>485</v>
-      </c>
-      <c r="F15" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>528</v>
+      </c>
+      <c r="E16" t="s">
+        <v>484</v>
+      </c>
+      <c r="F16" t="s">
         <v>529</v>
       </c>
-      <c r="E16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>530</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>531</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>532</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>533</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>534</v>
-      </c>
-      <c r="K16" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
+        <v>535</v>
+      </c>
+      <c r="E17" t="s">
+        <v>484</v>
+      </c>
+      <c r="F17" t="s">
         <v>536</v>
       </c>
-      <c r="E17" t="s">
-        <v>485</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>537</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>538</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>539</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>540</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>541</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>542</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>543</v>
-      </c>
-      <c r="M17" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>544</v>
+      </c>
+      <c r="E18" t="s">
+        <v>484</v>
+      </c>
+      <c r="F18" t="s">
         <v>545</v>
-      </c>
-      <c r="E18" t="s">
-        <v>485</v>
-      </c>
-      <c r="F18" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
+        <v>546</v>
+      </c>
+      <c r="E19" t="s">
+        <v>484</v>
+      </c>
+      <c r="F19" t="s">
         <v>547</v>
       </c>
-      <c r="E19" t="s">
-        <v>485</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>548</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>549</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>550</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>551</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>552</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>553</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>554</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>555</v>
-      </c>
-      <c r="N19" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
+        <v>556</v>
+      </c>
+      <c r="E20" t="s">
+        <v>484</v>
+      </c>
+      <c r="F20" t="s">
         <v>557</v>
-      </c>
-      <c r="E20" t="s">
-        <v>485</v>
-      </c>
-      <c r="F20" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
+        <v>558</v>
+      </c>
+      <c r="E21" t="s">
+        <v>484</v>
+      </c>
+      <c r="F21" t="s">
         <v>559</v>
       </c>
-      <c r="E21" t="s">
-        <v>485</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>560</v>
-      </c>
-      <c r="G21" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
+        <v>561</v>
+      </c>
+      <c r="E22" t="s">
+        <v>484</v>
+      </c>
+      <c r="F22" t="s">
         <v>562</v>
       </c>
-      <c r="E22" t="s">
-        <v>485</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>563</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>564</v>
-      </c>
-      <c r="H22" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
+        <v>565</v>
+      </c>
+      <c r="E23" t="s">
+        <v>484</v>
+      </c>
+      <c r="F23" t="s">
         <v>566</v>
       </c>
-      <c r="E23" t="s">
-        <v>485</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>567</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>568</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>569</v>
-      </c>
-      <c r="I23" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>570</v>
+      </c>
+      <c r="E24" t="s">
+        <v>484</v>
+      </c>
+      <c r="F24" t="s">
         <v>571</v>
       </c>
-      <c r="E24" t="s">
-        <v>485</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>572</v>
-      </c>
-      <c r="G24" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>573</v>
+      </c>
+      <c r="E25" t="s">
+        <v>484</v>
+      </c>
+      <c r="F25" t="s">
         <v>574</v>
       </c>
-      <c r="E25" t="s">
-        <v>485</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>575</v>
-      </c>
-      <c r="G25" t="s">
-        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/inst/2023-mht/dataDictionary20230526.xlsx
+++ b/inst/2023-mht/dataDictionary20230526.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/containers/volumes/workbench/r-packages/swereg/inst/2023-mht/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6170A27-C222-CC48-ACAA-A0225C14A2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81DA97B-61F0-AB48-93F4-4E7CB44BFD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="6100" windowWidth="40620" windowHeight="21840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53420" yWindow="31260" windowWidth="45040" windowHeight="25900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MHT_groups" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="576">
   <si>
     <t>Grupp</t>
   </si>
@@ -1064,21 +1064,6 @@
   </si>
   <si>
     <t>estrogen_only</t>
-  </si>
-  <si>
-    <t>estrogen_progesterone_po</t>
-  </si>
-  <si>
-    <t>estrogen_progesterone_transdermal</t>
-  </si>
-  <si>
-    <t>estrogen_progesterone_im_sc</t>
-  </si>
-  <si>
-    <t>estrogen_progesterone_IUD</t>
-  </si>
-  <si>
-    <t>estrogen_progesterone_vaginal</t>
   </si>
   <si>
     <t>estrogen_progesterone_synthetic</t>
@@ -1768,6 +1753,15 @@
   </si>
   <si>
     <t>Utrogestan: Off-label. DDD 90. FDDD 33 (package of 15). (Dose: 200 mg 12 days/months sequentially)</t>
+  </si>
+  <si>
+    <t>estrogen_progesterone_biodentical</t>
+  </si>
+  <si>
+    <t>estrogen_progesterone_iud</t>
+  </si>
+  <si>
+    <t>exclude_estrogen_only</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1929,6 +1923,7 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2015,9 +2010,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2055,7 +2050,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2161,7 +2156,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2303,7 +2298,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5357,8 +5352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5936,7 +5931,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>343</v>
+        <v>575</v>
       </c>
       <c r="B41" s="15">
         <v>3</v>
@@ -6014,7 +6009,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>343</v>
+        <v>575</v>
       </c>
       <c r="B42" s="15">
         <v>3</v>
@@ -6092,7 +6087,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>343</v>
+        <v>575</v>
       </c>
       <c r="B43" s="15">
         <v>3</v>
@@ -6170,7 +6165,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>343</v>
+        <v>575</v>
       </c>
       <c r="B44" s="15">
         <v>3</v>
@@ -6248,7 +6243,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>343</v>
+        <v>575</v>
       </c>
       <c r="B45" s="15">
         <v>3</v>
@@ -6358,7 +6353,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="V48" s="14"/>
       <c r="W48" s="14"/>
@@ -6371,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="V49" s="14"/>
       <c r="W49" s="14"/>
@@ -6384,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="V50" s="14"/>
       <c r="W50" s="14"/>
@@ -6397,7 +6392,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="V51" s="14"/>
       <c r="W51" s="14"/>
@@ -6410,7 +6405,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="V52" s="14"/>
       <c r="W52" s="14"/>
@@ -6423,7 +6418,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="14"/>
@@ -6436,10 +6431,22 @@
         <v>3</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>116</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
       <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
+      <c r="W54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="14"/>
+      <c r="AE54" s="14"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
@@ -6449,10 +6456,22 @@
         <v>3</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>119</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
       <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
+      <c r="W55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="14"/>
+      <c r="AE55" s="14"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
@@ -6462,7 +6481,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>145</v>
@@ -6487,7 +6506,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>158</v>
@@ -6512,10 +6531,10 @@
         <v>3</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
@@ -6537,10 +6556,10 @@
         <v>3</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
@@ -6562,10 +6581,10 @@
         <v>3</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
@@ -6587,10 +6606,10 @@
         <v>3</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
@@ -6612,7 +6631,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>145</v>
@@ -6637,7 +6656,7 @@
         <v>3</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>158</v>
@@ -6662,17 +6681,17 @@
         <v>3</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
+        <v>235</v>
+      </c>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
       <c r="V64" s="14"/>
       <c r="W64" s="15"/>
       <c r="Y64" s="15"/>
@@ -6687,17 +6706,17 @@
         <v>3</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
+        <v>238</v>
+      </c>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
       <c r="V65" s="14"/>
       <c r="W65" s="15"/>
       <c r="Y65" s="15"/>
@@ -6712,17 +6731,17 @@
         <v>3</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
+        <v>235</v>
+      </c>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
       <c r="V66" s="14"/>
       <c r="W66" s="15"/>
       <c r="Y66" s="15"/>
@@ -6737,17 +6756,17 @@
         <v>3</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
+        <v>238</v>
+      </c>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
       <c r="V67" s="14"/>
       <c r="W67" s="15"/>
       <c r="Y67" s="15"/>
@@ -6762,17 +6781,17 @@
         <v>3</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
+        <v>235</v>
+      </c>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
       <c r="V68" s="14"/>
       <c r="W68" s="15"/>
       <c r="Y68" s="15"/>
@@ -6787,17 +6806,17 @@
         <v>3</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
+        <v>238</v>
+      </c>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="15"/>
       <c r="Y69" s="15"/>
@@ -6812,17 +6831,17 @@
         <v>3</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
+        <v>235</v>
+      </c>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
       <c r="V70" s="14"/>
       <c r="W70" s="15"/>
       <c r="Y70" s="15"/>
@@ -6837,10 +6856,10 @@
         <v>3</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
@@ -6862,10 +6881,10 @@
         <v>3</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
@@ -6887,10 +6906,10 @@
         <v>3</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
@@ -6912,21 +6931,16 @@
         <v>3</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="V74" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="V74" s="15"/>
       <c r="W74" s="15"/>
       <c r="Y74" s="15"/>
       <c r="Z74" s="14"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="14"/>
       <c r="AE74" s="14"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
@@ -6937,21 +6951,16 @@
         <v>3</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="V75" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="V75" s="15"/>
       <c r="W75" s="15"/>
       <c r="Y75" s="15"/>
       <c r="Z75" s="14"/>
+      <c r="AA75" s="15"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="14"/>
       <c r="AE75" s="14"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
@@ -6962,21 +6971,25 @@
         <v>3</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
-      <c r="V76" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="V76" s="15"/>
       <c r="W76" s="15"/>
       <c r="Y76" s="15"/>
       <c r="Z76" s="14"/>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="14"/>
       <c r="AE76" s="14"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
@@ -6987,21 +7000,25 @@
         <v>3</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="V77" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="V77" s="15"/>
       <c r="W77" s="15"/>
       <c r="Y77" s="15"/>
       <c r="Z77" s="14"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="14"/>
       <c r="AE77" s="14"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
@@ -7012,21 +7029,25 @@
         <v>3</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="14"/>
-      <c r="V78" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="V78" s="15"/>
       <c r="W78" s="15"/>
       <c r="Y78" s="15"/>
       <c r="Z78" s="14"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="14"/>
       <c r="AE78" s="14"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
@@ -7037,21 +7058,25 @@
         <v>3</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="14"/>
-      <c r="V79" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="V79" s="15"/>
       <c r="W79" s="15"/>
       <c r="Y79" s="15"/>
       <c r="Z79" s="14"/>
+      <c r="AA79" s="15"/>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="15"/>
+      <c r="AD79" s="14"/>
       <c r="AE79" s="14"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
@@ -7065,72 +7090,94 @@
         <v>64</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="14"/>
-      <c r="V80" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="V80" s="15"/>
       <c r="W80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="14"/>
+      <c r="AA80" s="15"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="14"/>
       <c r="AE80" s="14"/>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B81" s="15">
         <v>3</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>71</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
       <c r="V81" s="15"/>
       <c r="W81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="14"/>
+      <c r="Y81" s="14"/>
+      <c r="Z81" s="15"/>
       <c r="AA81" s="15"/>
       <c r="AB81" s="15"/>
-      <c r="AC81" s="15"/>
+      <c r="AC81" s="14"/>
       <c r="AD81" s="14"/>
       <c r="AE81" s="14"/>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B82" s="15">
         <v>3</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>103</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
       <c r="V82" s="15"/>
       <c r="W82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="14"/>
+      <c r="Y82" s="14"/>
+      <c r="Z82" s="15"/>
       <c r="AA82" s="15"/>
       <c r="AB82" s="15"/>
-      <c r="AC82" s="15"/>
+      <c r="AC82" s="14"/>
       <c r="AD82" s="14"/>
       <c r="AE82" s="14"/>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B83" s="15">
         <v>3</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -7140,26 +7187,26 @@
       <c r="P83" s="16"/>
       <c r="V83" s="15"/>
       <c r="W83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="14"/>
+      <c r="Y83" s="14"/>
+      <c r="Z83" s="15"/>
       <c r="AA83" s="15"/>
       <c r="AB83" s="15"/>
-      <c r="AC83" s="15"/>
+      <c r="AC83" s="14"/>
       <c r="AD83" s="14"/>
       <c r="AE83" s="14"/>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B84" s="15">
         <v>3</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
@@ -7169,26 +7216,26 @@
       <c r="P84" s="16"/>
       <c r="V84" s="15"/>
       <c r="W84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="14"/>
+      <c r="Y84" s="14"/>
+      <c r="Z84" s="15"/>
       <c r="AA84" s="15"/>
       <c r="AB84" s="15"/>
-      <c r="AC84" s="15"/>
+      <c r="AC84" s="14"/>
       <c r="AD84" s="14"/>
       <c r="AE84" s="14"/>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B85" s="15">
         <v>3</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
@@ -7198,26 +7245,26 @@
       <c r="P85" s="16"/>
       <c r="V85" s="15"/>
       <c r="W85" s="15"/>
-      <c r="Y85" s="15"/>
+      <c r="Y85" s="14"/>
       <c r="Z85" s="14"/>
       <c r="AA85" s="15"/>
       <c r="AB85" s="15"/>
-      <c r="AC85" s="15"/>
+      <c r="AC85" s="14"/>
       <c r="AD85" s="14"/>
       <c r="AE85" s="14"/>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B86" s="15">
         <v>3</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
@@ -7226,27 +7273,26 @@
       <c r="O86" s="16"/>
       <c r="P86" s="16"/>
       <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
-      <c r="Y86" s="15"/>
+      <c r="Y86" s="14"/>
       <c r="Z86" s="14"/>
       <c r="AA86" s="15"/>
       <c r="AB86" s="15"/>
-      <c r="AC86" s="15"/>
+      <c r="AC86" s="14"/>
       <c r="AD86" s="14"/>
       <c r="AE86" s="14"/>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B87" s="15">
         <v>3</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
@@ -7255,27 +7301,26 @@
       <c r="O87" s="16"/>
       <c r="P87" s="16"/>
       <c r="V87" s="15"/>
-      <c r="W87" s="15"/>
-      <c r="Y87" s="15"/>
+      <c r="Y87" s="14"/>
       <c r="Z87" s="14"/>
       <c r="AA87" s="15"/>
       <c r="AB87" s="15"/>
-      <c r="AC87" s="15"/>
+      <c r="AC87" s="14"/>
       <c r="AD87" s="14"/>
       <c r="AE87" s="14"/>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B88" s="15">
         <v>3</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
@@ -7284,9 +7329,8 @@
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
       <c r="V88" s="15"/>
-      <c r="W88" s="15"/>
       <c r="Y88" s="14"/>
-      <c r="Z88" s="15"/>
+      <c r="Z88" s="14"/>
       <c r="AA88" s="15"/>
       <c r="AB88" s="15"/>
       <c r="AC88" s="14"/>
@@ -7295,16 +7339,16 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B89" s="15">
         <v>3</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
@@ -7313,9 +7357,8 @@
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
       <c r="V89" s="15"/>
-      <c r="W89" s="15"/>
       <c r="Y89" s="14"/>
-      <c r="Z89" s="15"/>
+      <c r="Z89" s="14"/>
       <c r="AA89" s="15"/>
       <c r="AB89" s="15"/>
       <c r="AC89" s="14"/>
@@ -7324,16 +7367,16 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B90" s="15">
         <v>3</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
@@ -7353,16 +7396,16 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B91" s="15">
         <v>3</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
@@ -7382,16 +7425,16 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B92" s="15">
         <v>3</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
@@ -7402,7 +7445,7 @@
       <c r="V92" s="15"/>
       <c r="W92" s="15"/>
       <c r="Y92" s="14"/>
-      <c r="Z92" s="14"/>
+      <c r="Z92" s="15"/>
       <c r="AA92" s="15"/>
       <c r="AB92" s="15"/>
       <c r="AC92" s="14"/>
@@ -7411,16 +7454,16 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B93" s="15">
         <v>3</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
@@ -7429,8 +7472,9 @@
       <c r="O93" s="16"/>
       <c r="P93" s="16"/>
       <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
       <c r="Y93" s="14"/>
-      <c r="Z93" s="14"/>
+      <c r="Z93" s="15"/>
       <c r="AA93" s="15"/>
       <c r="AB93" s="15"/>
       <c r="AC93" s="14"/>
@@ -7439,16 +7483,16 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B94" s="15">
         <v>3</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
@@ -7457,26 +7501,27 @@
       <c r="O94" s="16"/>
       <c r="P94" s="16"/>
       <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
       <c r="Y94" s="14"/>
-      <c r="Z94" s="14"/>
+      <c r="Z94" s="15"/>
       <c r="AA94" s="15"/>
       <c r="AB94" s="15"/>
       <c r="AC94" s="14"/>
       <c r="AD94" s="14"/>
       <c r="AE94" s="14"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B95" s="15">
         <v>3</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
@@ -7485,8 +7530,9 @@
       <c r="O95" s="16"/>
       <c r="P95" s="16"/>
       <c r="V95" s="15"/>
+      <c r="W95" s="15"/>
       <c r="Y95" s="14"/>
-      <c r="Z95" s="14"/>
+      <c r="Z95" s="15"/>
       <c r="AA95" s="15"/>
       <c r="AB95" s="15"/>
       <c r="AC95" s="14"/>
@@ -7495,16 +7541,16 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>346</v>
+        <v>574</v>
       </c>
       <c r="B96" s="15">
         <v>3</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
@@ -7513,26 +7559,25 @@
       <c r="O96" s="16"/>
       <c r="P96" s="16"/>
       <c r="V96" s="15"/>
-      <c r="Y96" s="14"/>
-      <c r="Z96" s="14"/>
-      <c r="AA96" s="15"/>
-      <c r="AB96" s="15"/>
+      <c r="W96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="15"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="14"/>
       <c r="AC96" s="14"/>
-      <c r="AD96" s="14"/>
-      <c r="AE96" s="14"/>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>346</v>
+        <v>574</v>
       </c>
       <c r="B97" s="15">
         <v>3</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
@@ -7542,26 +7587,24 @@
       <c r="P97" s="16"/>
       <c r="V97" s="15"/>
       <c r="W97" s="15"/>
-      <c r="Y97" s="14"/>
+      <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
-      <c r="AA97" s="15"/>
-      <c r="AB97" s="15"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="14"/>
       <c r="AC97" s="14"/>
-      <c r="AD97" s="14"/>
-      <c r="AE97" s="14"/>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>346</v>
+        <v>574</v>
       </c>
       <c r="B98" s="15">
         <v>3</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
@@ -7571,26 +7614,24 @@
       <c r="P98" s="16"/>
       <c r="V98" s="15"/>
       <c r="W98" s="15"/>
-      <c r="Y98" s="14"/>
+      <c r="Y98" s="15"/>
       <c r="Z98" s="15"/>
-      <c r="AA98" s="15"/>
-      <c r="AB98" s="15"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="14"/>
       <c r="AC98" s="14"/>
-      <c r="AD98" s="14"/>
-      <c r="AE98" s="14"/>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>346</v>
+        <v>574</v>
       </c>
       <c r="B99" s="15">
         <v>3</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
@@ -7600,26 +7641,24 @@
       <c r="P99" s="16"/>
       <c r="V99" s="15"/>
       <c r="W99" s="15"/>
-      <c r="Y99" s="14"/>
+      <c r="Y99" s="15"/>
       <c r="Z99" s="15"/>
-      <c r="AA99" s="15"/>
-      <c r="AB99" s="15"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="14"/>
       <c r="AC99" s="14"/>
-      <c r="AD99" s="14"/>
-      <c r="AE99" s="14"/>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>346</v>
+        <v>574</v>
       </c>
       <c r="B100" s="15">
         <v>3</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
@@ -7629,26 +7668,24 @@
       <c r="P100" s="16"/>
       <c r="V100" s="15"/>
       <c r="W100" s="15"/>
-      <c r="Y100" s="14"/>
+      <c r="Y100" s="15"/>
       <c r="Z100" s="15"/>
-      <c r="AA100" s="15"/>
-      <c r="AB100" s="15"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="14"/>
       <c r="AC100" s="14"/>
-      <c r="AD100" s="14"/>
-      <c r="AE100" s="14"/>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>346</v>
+        <v>573</v>
       </c>
       <c r="B101" s="15">
         <v>3</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
@@ -7658,26 +7695,24 @@
       <c r="P101" s="16"/>
       <c r="V101" s="15"/>
       <c r="W101" s="15"/>
-      <c r="Y101" s="14"/>
+      <c r="Y101" s="15"/>
       <c r="Z101" s="15"/>
-      <c r="AA101" s="15"/>
-      <c r="AB101" s="15"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="14"/>
       <c r="AC101" s="14"/>
-      <c r="AD101" s="14"/>
-      <c r="AE101" s="14"/>
-    </row>
-    <row r="102" spans="1:31" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>346</v>
+        <v>573</v>
       </c>
       <c r="B102" s="15">
         <v>3</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
@@ -7687,26 +7722,24 @@
       <c r="P102" s="16"/>
       <c r="V102" s="15"/>
       <c r="W102" s="15"/>
-      <c r="Y102" s="14"/>
+      <c r="Y102" s="15"/>
       <c r="Z102" s="15"/>
-      <c r="AA102" s="15"/>
-      <c r="AB102" s="15"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="14"/>
       <c r="AC102" s="14"/>
-      <c r="AD102" s="14"/>
-      <c r="AE102" s="14"/>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>347</v>
+        <v>573</v>
       </c>
       <c r="B103" s="15">
         <v>3</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
@@ -7724,16 +7757,16 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>347</v>
+        <v>573</v>
       </c>
       <c r="B104" s="15">
         <v>3</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
@@ -7751,16 +7784,16 @@
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>347</v>
+        <v>573</v>
       </c>
       <c r="B105" s="15">
         <v>3</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
@@ -7778,48 +7811,31 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>347</v>
+        <v>573</v>
       </c>
       <c r="B106" s="15">
         <v>3</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="V106" s="15"/>
-      <c r="W106" s="15"/>
-      <c r="Y106" s="15"/>
-      <c r="Z106" s="15"/>
-      <c r="AA106" s="14"/>
-      <c r="AB106" s="14"/>
-      <c r="AC106" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="V106" s="14"/>
+      <c r="W106" s="14"/>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>347</v>
+        <v>573</v>
       </c>
       <c r="B107" s="15">
         <v>3</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="20"/>
       <c r="O107" s="16"/>
       <c r="P107" s="16"/>
       <c r="V107" s="15"/>
@@ -7832,7 +7848,7 @@
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>348</v>
+        <v>573</v>
       </c>
       <c r="B108" s="15">
         <v>3</v>
@@ -7841,7 +7857,7 @@
         <v>15</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
@@ -7849,17 +7865,15 @@
       <c r="N108" s="10"/>
       <c r="O108" s="16"/>
       <c r="P108" s="16"/>
-      <c r="V108" s="15"/>
+      <c r="V108" s="14"/>
       <c r="W108" s="15"/>
       <c r="Y108" s="15"/>
-      <c r="Z108" s="15"/>
-      <c r="AA108" s="14"/>
-      <c r="AB108" s="14"/>
-      <c r="AC108" s="14"/>
+      <c r="Z108" s="14"/>
+      <c r="AE108" s="14"/>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>348</v>
+        <v>573</v>
       </c>
       <c r="B109" s="15">
         <v>3</v>
@@ -7868,7 +7882,7 @@
         <v>33</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
@@ -7876,17 +7890,15 @@
       <c r="N109" s="10"/>
       <c r="O109" s="16"/>
       <c r="P109" s="16"/>
-      <c r="V109" s="15"/>
+      <c r="V109" s="14"/>
       <c r="W109" s="15"/>
       <c r="Y109" s="15"/>
-      <c r="Z109" s="15"/>
-      <c r="AA109" s="14"/>
-      <c r="AB109" s="14"/>
-      <c r="AC109" s="14"/>
+      <c r="Z109" s="14"/>
+      <c r="AE109" s="14"/>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>348</v>
+        <v>573</v>
       </c>
       <c r="B110" s="15">
         <v>3</v>
@@ -7895,7 +7907,7 @@
         <v>56</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
@@ -7903,17 +7915,15 @@
       <c r="N110" s="10"/>
       <c r="O110" s="16"/>
       <c r="P110" s="16"/>
-      <c r="V110" s="15"/>
+      <c r="V110" s="14"/>
       <c r="W110" s="15"/>
       <c r="Y110" s="15"/>
-      <c r="Z110" s="15"/>
-      <c r="AA110" s="14"/>
-      <c r="AB110" s="14"/>
-      <c r="AC110" s="14"/>
+      <c r="Z110" s="14"/>
+      <c r="AE110" s="14"/>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>348</v>
+        <v>573</v>
       </c>
       <c r="B111" s="15">
         <v>3</v>
@@ -7922,7 +7932,7 @@
         <v>59</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="K111" s="10"/>
       <c r="L111" s="10"/>
@@ -7930,17 +7940,15 @@
       <c r="N111" s="10"/>
       <c r="O111" s="16"/>
       <c r="P111" s="16"/>
-      <c r="V111" s="15"/>
+      <c r="V111" s="14"/>
       <c r="W111" s="15"/>
       <c r="Y111" s="15"/>
-      <c r="Z111" s="15"/>
-      <c r="AA111" s="14"/>
-      <c r="AB111" s="14"/>
-      <c r="AC111" s="14"/>
+      <c r="Z111" s="14"/>
+      <c r="AE111" s="14"/>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>348</v>
+        <v>573</v>
       </c>
       <c r="B112" s="15">
         <v>3</v>
@@ -7949,7 +7957,7 @@
         <v>64</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
@@ -7957,13 +7965,11 @@
       <c r="N112" s="10"/>
       <c r="O112" s="16"/>
       <c r="P112" s="16"/>
-      <c r="V112" s="15"/>
+      <c r="V112" s="14"/>
       <c r="W112" s="15"/>
       <c r="Y112" s="15"/>
-      <c r="Z112" s="15"/>
-      <c r="AA112" s="14"/>
-      <c r="AB112" s="14"/>
-      <c r="AC112" s="14"/>
+      <c r="Z112" s="14"/>
+      <c r="AE112" s="14"/>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
@@ -8418,7 +8424,7 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B121" s="15">
         <v>4</v>
@@ -8429,7 +8435,7 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B122" s="15">
         <v>4</v>
@@ -8440,7 +8446,7 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B123" s="15">
         <v>4</v>
@@ -8451,7 +8457,7 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B124" s="15">
         <v>4</v>
@@ -8462,7 +8468,7 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B125" s="15">
         <v>4</v>
@@ -8473,7 +8479,7 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B126" s="15">
         <v>4</v>
@@ -8484,7 +8490,7 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B127" s="15">
         <v>4</v>
@@ -8495,7 +8501,7 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B128" s="15">
         <v>4</v>
@@ -8506,7 +8512,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B129" s="15">
         <v>4</v>
@@ -8517,7 +8523,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B130" s="15">
         <v>4</v>
@@ -8528,7 +8534,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B131" s="15">
         <v>4</v>
@@ -8542,7 +8548,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B132" s="15">
         <v>4</v>
@@ -8556,7 +8562,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B133" s="15">
         <v>4</v>
@@ -8570,7 +8576,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B134" s="15">
         <v>4</v>
@@ -8584,7 +8590,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B135" s="15">
         <v>4</v>
@@ -8598,7 +8604,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B136" s="15">
         <v>4</v>
@@ -8612,7 +8618,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B137" s="15">
         <v>4</v>
@@ -8626,7 +8632,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B138" s="15">
         <v>4</v>
@@ -8640,7 +8646,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B139" s="15">
         <v>4</v>
@@ -8654,7 +8660,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B140" s="15">
         <v>4</v>
@@ -8668,7 +8674,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B141" s="15">
         <v>4</v>
@@ -8682,7 +8688,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B142" s="15">
         <v>4</v>
@@ -8696,7 +8702,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B143" s="15">
         <v>4</v>
@@ -8710,7 +8716,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B144" s="15">
         <v>4</v>
@@ -8724,7 +8730,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B145" s="15">
         <v>4</v>
@@ -8738,7 +8744,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B146" s="15">
         <v>4</v>
@@ -8752,7 +8758,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B147" s="15">
         <v>4</v>
@@ -8766,7 +8772,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B148" s="15">
         <v>4</v>
@@ -8780,7 +8786,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B149" s="15">
         <v>4</v>
@@ -8794,7 +8800,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B150" s="15">
         <v>4</v>
@@ -8808,7 +8814,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B151" s="15">
         <v>4</v>
@@ -8822,7 +8828,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B152" s="15">
         <v>4</v>
@@ -8836,7 +8842,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B153" s="15">
         <v>4</v>
@@ -8850,7 +8856,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B154" s="15">
         <v>4</v>
@@ -8864,7 +8870,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B155" s="15">
         <v>4</v>
@@ -8878,7 +8884,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B156" s="15">
         <v>4</v>
@@ -8892,7 +8898,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B157" s="15">
         <v>4</v>
@@ -8906,7 +8912,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B158" s="15">
         <v>4</v>
@@ -8920,7 +8926,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B159" s="15">
         <v>4</v>
@@ -8934,7 +8940,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B160" s="15">
         <v>4</v>
@@ -8948,7 +8954,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B161" s="15">
         <v>4</v>
@@ -8962,7 +8968,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B162" s="15">
         <v>4</v>
@@ -8976,7 +8982,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B163" s="15">
         <v>4</v>
@@ -8990,7 +8996,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B164" s="15">
         <v>4</v>
@@ -9004,7 +9010,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B165" s="15">
         <v>4</v>
@@ -9018,7 +9024,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B166" s="15">
         <v>4</v>
@@ -9032,7 +9038,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B167" s="15">
         <v>4</v>
@@ -9046,7 +9052,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B168" s="15">
         <v>4</v>
@@ -9060,7 +9066,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B169" s="15">
         <v>4</v>
@@ -9074,7 +9080,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B170" s="15">
         <v>4</v>
@@ -9088,7 +9094,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B171" s="15">
         <v>4</v>
@@ -9102,7 +9108,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B172" s="15">
         <v>4</v>
@@ -9116,7 +9122,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B173" s="15">
         <v>4</v>
@@ -9130,7 +9136,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B174" s="15">
         <v>4</v>
@@ -9144,7 +9150,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B175" s="15">
         <v>4</v>
@@ -9158,7 +9164,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B176" s="15">
         <v>4</v>
@@ -9169,7 +9175,7 @@
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B177" s="15">
         <v>4</v>
@@ -9180,7 +9186,7 @@
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B178" s="15">
         <v>4</v>
@@ -9194,7 +9200,7 @@
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B179" s="15">
         <v>4</v>
@@ -9208,7 +9214,7 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B180" s="15">
         <v>4</v>
@@ -9222,7 +9228,7 @@
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B181" s="15">
         <v>4</v>
@@ -9236,7 +9242,7 @@
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B182" s="15">
         <v>4</v>
@@ -9250,7 +9256,7 @@
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B183" s="15">
         <v>4</v>
@@ -9264,7 +9270,7 @@
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B184" s="15">
         <v>4</v>
@@ -9278,7 +9284,7 @@
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B185" s="15">
         <v>4</v>
@@ -9292,7 +9298,7 @@
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B186" s="15">
         <v>4</v>
@@ -9306,7 +9312,7 @@
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B187" s="15">
         <v>4</v>
@@ -9375,7 +9381,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
@@ -9383,42 +9389,42 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="68" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -9442,52 +9448,52 @@
   <sheetData>
     <row r="2" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="180" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="60" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="60" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -9513,767 +9519,767 @@
   <sheetData>
     <row r="1" spans="1:115" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>305</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AV1" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AX1" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BF1" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BI1" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BL1" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BM1" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BN1" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BP1" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BR1" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BS1" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BT1" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BU1" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BX1" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BY1" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="CA1" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="CB1" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="CC1" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="CD1" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="CE1" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CF1" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CG1" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CH1" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CI1" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CK1" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CL1" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CM1" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CN1" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CP1" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CS1" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CT1" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CU1" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CX1" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="DB1" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="DC1" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="DD1" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DE1" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DF1" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DG1" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DH1" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DI1" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DK1" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="DG1" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="DH1" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="DI1" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="DJ1" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="DK1" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F2" t="s">
         <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G3" t="s">
         <v>483</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>484</v>
-      </c>
-      <c r="F3" t="s">
-        <v>487</v>
-      </c>
-      <c r="G3" t="s">
-        <v>488</v>
-      </c>
-      <c r="H3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E4" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F4" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G6" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H7" t="s">
+        <v>496</v>
+      </c>
+      <c r="I7" t="s">
+        <v>497</v>
+      </c>
+      <c r="J7" t="s">
         <v>498</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E7" t="s">
-        <v>484</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="K7" t="s">
         <v>499</v>
-      </c>
-      <c r="G7" t="s">
-        <v>500</v>
-      </c>
-      <c r="H7" t="s">
-        <v>501</v>
-      </c>
-      <c r="I7" t="s">
-        <v>502</v>
-      </c>
-      <c r="J7" t="s">
-        <v>503</v>
-      </c>
-      <c r="K7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G8" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E10" t="s">
+        <v>479</v>
+      </c>
+      <c r="F10" t="s">
+        <v>506</v>
+      </c>
+      <c r="G10" t="s">
+        <v>507</v>
+      </c>
+      <c r="H10" t="s">
+        <v>508</v>
+      </c>
+      <c r="I10" t="s">
+        <v>509</v>
+      </c>
+      <c r="J10" t="s">
         <v>510</v>
-      </c>
-      <c r="E10" t="s">
-        <v>484</v>
-      </c>
-      <c r="F10" t="s">
-        <v>511</v>
-      </c>
-      <c r="G10" t="s">
-        <v>512</v>
-      </c>
-      <c r="H10" t="s">
-        <v>513</v>
-      </c>
-      <c r="I10" t="s">
-        <v>514</v>
-      </c>
-      <c r="J10" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F11" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E12" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F12" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G12" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E13" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F13" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E14" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F14" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C15" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E15" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F15" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:115" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>523</v>
+      </c>
+      <c r="E16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F16" t="s">
+        <v>524</v>
+      </c>
+      <c r="G16" t="s">
+        <v>525</v>
+      </c>
+      <c r="H16" t="s">
+        <v>526</v>
+      </c>
+      <c r="I16" t="s">
+        <v>527</v>
+      </c>
+      <c r="J16" t="s">
         <v>528</v>
       </c>
-      <c r="E16" t="s">
-        <v>484</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="K16" t="s">
         <v>529</v>
-      </c>
-      <c r="G16" t="s">
-        <v>530</v>
-      </c>
-      <c r="H16" t="s">
-        <v>531</v>
-      </c>
-      <c r="I16" t="s">
-        <v>532</v>
-      </c>
-      <c r="J16" t="s">
-        <v>533</v>
-      </c>
-      <c r="K16" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" t="s">
+        <v>479</v>
+      </c>
+      <c r="F17" t="s">
+        <v>531</v>
+      </c>
+      <c r="G17" t="s">
+        <v>532</v>
+      </c>
+      <c r="H17" t="s">
+        <v>533</v>
+      </c>
+      <c r="I17" t="s">
+        <v>534</v>
+      </c>
+      <c r="J17" t="s">
         <v>535</v>
       </c>
-      <c r="E17" t="s">
-        <v>484</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="K17" t="s">
         <v>536</v>
       </c>
-      <c r="G17" t="s">
+      <c r="L17" t="s">
         <v>537</v>
       </c>
-      <c r="H17" t="s">
+      <c r="M17" t="s">
         <v>538</v>
-      </c>
-      <c r="I17" t="s">
-        <v>539</v>
-      </c>
-      <c r="J17" t="s">
-        <v>540</v>
-      </c>
-      <c r="K17" t="s">
-        <v>541</v>
-      </c>
-      <c r="L17" t="s">
-        <v>542</v>
-      </c>
-      <c r="M17" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E18" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F18" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
+        <v>541</v>
+      </c>
+      <c r="E19" t="s">
+        <v>479</v>
+      </c>
+      <c r="F19" t="s">
+        <v>542</v>
+      </c>
+      <c r="G19" t="s">
+        <v>543</v>
+      </c>
+      <c r="H19" t="s">
+        <v>544</v>
+      </c>
+      <c r="I19" t="s">
+        <v>545</v>
+      </c>
+      <c r="J19" t="s">
         <v>546</v>
       </c>
-      <c r="E19" t="s">
-        <v>484</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="K19" t="s">
         <v>547</v>
       </c>
-      <c r="G19" t="s">
+      <c r="L19" t="s">
         <v>548</v>
       </c>
-      <c r="H19" t="s">
+      <c r="M19" t="s">
         <v>549</v>
       </c>
-      <c r="I19" t="s">
+      <c r="N19" t="s">
         <v>550</v>
-      </c>
-      <c r="J19" t="s">
-        <v>551</v>
-      </c>
-      <c r="K19" t="s">
-        <v>552</v>
-      </c>
-      <c r="L19" t="s">
-        <v>553</v>
-      </c>
-      <c r="M19" t="s">
-        <v>554</v>
-      </c>
-      <c r="N19" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E20" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F20" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E21" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F21" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G21" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E22" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F22" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G22" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H22" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E23" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F23" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G23" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H23" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I23" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E24" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F24" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G24" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E25" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F25" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G25" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
